--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="11780" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="7780" yWindow="460" windowWidth="11780" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
   <si>
     <t>Conventional</t>
   </si>
@@ -36,8 +81,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,107 +398,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="4" max="5" width="3.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <f>E2*(E7-E9)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <f>(E2+E3)*E9</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f>(E4+E5)*E6</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <f>E5*(E8-E6)</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f>(E2+E5)*(E6+E9)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
@@ -524,7 +667,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
@@ -666,6 +809,31 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
